--- a/stock_commands.xlsx
+++ b/stock_commands.xlsx
@@ -184,6 +184,8 @@
         <v>8</v>
       </c>
     </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
